--- a/moviescope/public/movies_cartoon_full.xlsx
+++ b/moviescope/public/movies_cartoon_full.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project react\moviescope\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384DD13C-4A88-4FC8-BBFC-90D9884C0968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,12 +37,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Durée (min)</t>
-  </si>
-  <si>
-    <t>Lien YouTube</t>
-  </si>
-  <si>
     <t>Toy Story</t>
   </si>
   <si>
@@ -46,9 +46,6 @@
     <t>Shrek</t>
   </si>
   <si>
-    <t>Les Indestructibles</t>
-  </si>
-  <si>
     <t>Coco</t>
   </si>
   <si>
@@ -67,36 +64,6 @@
     <t>Zootopie</t>
   </si>
   <si>
-    <t>/toystory.jpg</t>
-  </si>
-  <si>
-    <t>/leroilion.jpg</t>
-  </si>
-  <si>
-    <t>/shrek.jpg</t>
-  </si>
-  <si>
-    <t>/indestructibles.jpg</t>
-  </si>
-  <si>
-    <t>/coco.jpg</t>
-  </si>
-  <si>
-    <t>/monstres.jpg</t>
-  </si>
-  <si>
-    <t>/ratatouille.jpg</t>
-  </si>
-  <si>
-    <t>/madagascar.jpg</t>
-  </si>
-  <si>
-    <t>/viceversa.jpg</t>
-  </si>
-  <si>
-    <t>/zootopie.jpg</t>
-  </si>
-  <si>
     <t>Dans Toy Story, un cowboy en jouet nommé Woody est le leader des jouets d’un garçon nommé Andy. Sa vie bascule quand un nouvel astronaute en plastique, Buzz l'Éclair, arrive et menace sa place préférée. Ce film explore l’amitié, la jalousie et le passage du temps à travers un univers d’animation révolutionnaire.</t>
   </si>
   <si>
@@ -155,13 +122,52 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=jWM0ct-OLsM</t>
+  </si>
+  <si>
+    <t>https://image.tmdb.org/t/p/original/2bXbqYdUdNVa8VIWXVfclP2ICtT.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/M/MV5BMDU2ZWJlMjktMTRhMy00ZTA5LWEzNDgtYmNmZTEwZTViZWJkXkEyXkFqcGdeQXVyNDQ2OTk4MzI@._V1_FMjpg_UX1000_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/M/MV5BOGZhM2FhNTItODAzNi00YjA0LWEyN2UtNjJlYWQzYzU1MDg5L2ltYWdlL2ltYWdlXkEyXkFqcGdeQXVyMTQxNzMzNDI@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>https://lumiere-a.akamaihd.net/v1/images/p_coco_19736_fd5fa537.jpeg</t>
+  </si>
+  <si>
+    <t>https://image.tmdb.org/t/p/original/hlK0e0wAQ3VLuJcsfIYPvb4JVud.jpg</t>
+  </si>
+  <si>
+    <t>https://image.tmdb.org/t/p/original/t3vaWRPSf6WjDSamIkKDs1iQWna.jpg</t>
+  </si>
+  <si>
+    <t>https://fr.web.img5.acsta.net/r_1920_1080/pictures/18/06/22/23/03/2367622.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81K7gPPORBL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn11.bigcommerce.com/s-ydriczk/images/stencil/640w/products/82392/91885/MADAGASCAR-DOUBLE-SIDED-Regular-2005-ORIGINAL-CINEMA-POSTER__21886.1661849414.jpg?c=2</t>
+  </si>
+  <si>
+    <t>https://image.tmdb.org/t/p/original/ctqu3n5IC1Dl41h4599Q5UlNdzA.jpg</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Los Increibles</t>
+  </si>
+  <si>
+    <t>Trailer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,18 +238,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -281,7 +295,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -315,6 +329,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -349,9 +364,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,14 +540,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="136.5703125" customWidth="1"/>
+    <col min="7" max="7" width="63.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,254 +571,261 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D3">
         <v>8.5</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D4">
         <v>7.9</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D6">
         <v>8.4</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D7">
         <v>8.1</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>111</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D9">
         <v>6.9</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>86</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>95</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>108</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{20B3CE46-0DFA-405D-AB47-5B1693A54280}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{123388D7-38EA-446A-B19D-509DA61BCC56}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{7A88B60C-059C-46D4-AB4D-87BA833BA612}"/>
+    <hyperlink ref="C4" r:id="rId14" xr:uid="{646FFF77-64AC-4339-AF35-C9E92051F9E7}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{C396DF63-CC2D-44B0-A03C-0855E5328CA4}"/>
+    <hyperlink ref="C8" r:id="rId16" xr:uid="{D4290C7D-19AE-4686-A210-FB0203CA0480}"/>
+    <hyperlink ref="C5" r:id="rId17" xr:uid="{CA03D2A5-C38F-4810-A3F8-9373A42D0EB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moviescope/public/movies_cartoon_full.xlsx
+++ b/moviescope/public/movies_cartoon_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project react\moviescope\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384DD13C-4A88-4FC8-BBFC-90D9884C0968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012137D6-2188-4E26-A153-49BDC09E2481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
